--- a/core/test/integration/test.xlsx
+++ b/core/test/integration/test.xlsx
@@ -509,6 +509,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
